--- a/assets/upload/8.f.2.karya_ilmiah_disitasi_mhs.xlsx
+++ b/assets/upload/8.f.2.karya_ilmiah_disitasi_mhs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KaPulahtaFTUP\Documents\TEMPLATE BORANG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PULAHTA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="20910" windowHeight="13740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="penelitian_dtps" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -977,10 +977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,132 +1013,6 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
